--- a/resources/Part_3_Statistics/S15_L90/2.11.Covariance-exercise.xlsx
+++ b/resources/Part_3_Statistics/S15_L90/2.11.Covariance-exercise.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iliya\Desktop\Statistics Course\Filming\Final excel\Section 2 - Descriptive statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\GitRepos\StatisticsBAandDS\DataScienceBootcamp\resources\Part_3_Statistics\S15_L90\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="Covariance" sheetId="13" r:id="rId1"/>
     <sheet name="cov" sheetId="10" state="hidden" r:id="rId2"/>
     <sheet name="Covariance2" sheetId="11" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Housing data</t>
   </si>
@@ -88,16 +88,44 @@
   <si>
     <t>SAT scores</t>
   </si>
+  <si>
+    <t xml:space="preserve">Task 1: </t>
+  </si>
+  <si>
+    <t>This is a sample. "Several students". The complete population would be "all of the students in the college or in the country.</t>
+  </si>
+  <si>
+    <t>Task 2:</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>x-xmean</t>
+  </si>
+  <si>
+    <t>y-ymean</t>
+  </si>
+  <si>
+    <t>Task3:</t>
+  </si>
+  <si>
+    <t>Variables are clearly correlated and it is only natural that somebody reading well will perform well also writing.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_);\-\ #,##0_)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00_);\-\ #,##0.00_)"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0_);\-\ #,##0_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00_);\-\ #,##0.00_)"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -194,31 +222,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -228,12 +256,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -252,7 +283,710 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Writing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Reading</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Covariance!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Covariance!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Covariance!$D$12:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B54-48FE-AB21-D58FE6941D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1721690832"/>
+        <c:axId val="1781295728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1721690832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1781295728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1781295728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721690832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Reading vs. Writing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Covariance!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Covariance!$D$12:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Covariance!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98AD-4B0B-9455-AAFB20C462F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1721690832"/>
+        <c:axId val="1781295728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1721690832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1781295728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1781295728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721690832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -438,7 +1172,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -476,7 +1210,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267317632"/>
@@ -561,7 +1295,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -599,7 +1333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267316976"/>
@@ -635,7 +1369,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -686,6 +1420,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1202,7 +2016,1106 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1543,25 +3456,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:M23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="18.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="4.88671875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>4</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1569,7 +3487,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="2:13" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
@@ -1577,13 +3495,13 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="2:13" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="2:13" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1594,7 +3512,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="2:13" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1605,7 +3523,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="2:13" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1616,7 +3534,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="2:13" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -1627,109 +3545,221 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="2:13" ht="12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="2:13" ht="12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>1</v>
+      </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:13" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="19">
         <v>344</v>
       </c>
       <c r="D12" s="19">
         <v>378</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="13"/>
+      <c r="E12" s="24">
+        <f>C12-$C$19</f>
+        <v>-173.39999999999998</v>
+      </c>
+      <c r="F12" s="24">
+        <f>D12-$D$19</f>
+        <v>-112.39999999999998</v>
+      </c>
+      <c r="G12" s="22">
+        <f>E12*F12</f>
+        <v>19490.159999999993</v>
+      </c>
+      <c r="H12" s="25">
+        <f>SUM(G12:G16)/(C18-1)</f>
+        <v>21155.55</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="2:13" ht="12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="19">
         <v>383</v>
       </c>
       <c r="D13" s="19">
         <v>349</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="E13" s="24">
+        <f t="shared" ref="E13:E16" si="0">C13-$C$19</f>
+        <v>-134.39999999999998</v>
+      </c>
+      <c r="F13" s="24">
+        <f t="shared" ref="F13:F16" si="1">D13-$D$19</f>
+        <v>-141.39999999999998</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" ref="G13:G16" si="2">E13*F13</f>
+        <v>19004.159999999993</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="19">
         <v>611</v>
       </c>
       <c r="D14" s="19">
         <v>503</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="E14" s="24">
+        <f t="shared" si="0"/>
+        <v>93.600000000000023</v>
+      </c>
+      <c r="F14" s="24">
+        <f t="shared" si="1"/>
+        <v>12.600000000000023</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="2"/>
+        <v>1179.3600000000024</v>
+      </c>
       <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="19">
         <v>713</v>
       </c>
       <c r="D15" s="19">
         <v>719</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="E15" s="24">
+        <f t="shared" si="0"/>
+        <v>195.60000000000002</v>
+      </c>
+      <c r="F15" s="24">
+        <f t="shared" si="1"/>
+        <v>228.60000000000002</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="2"/>
+        <v>44714.160000000011</v>
+      </c>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="26">
+        <f>H12</f>
+        <v>21155.55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C16" s="20">
         <v>536</v>
       </c>
       <c r="D16" s="20">
         <v>503</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="E16" s="24">
+        <f t="shared" si="0"/>
+        <v>18.600000000000023</v>
+      </c>
+      <c r="F16" s="24">
+        <f t="shared" si="1"/>
+        <v>12.600000000000023</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="2"/>
+        <v>234.3600000000007</v>
+      </c>
       <c r="H16" s="13"/>
+      <c r="I16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <f>SUM(C12:C16)</f>
+        <v>2587</v>
+      </c>
+      <c r="D17" s="1">
+        <f>SUM(D12:D16)</f>
+        <v>2452</v>
+      </c>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="2:8" ht="12" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4">
+        <f>COUNT(C12:C16)</f>
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <f>COUNT(D12:D16)</f>
+        <v>5</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="23"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="2:8" ht="12" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8">
+        <f>C17/C18</f>
+        <v>517.4</v>
+      </c>
+      <c r="D19" s="8">
+        <f>D17/D18</f>
+        <v>490.4</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="14"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1742,7 +3772,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
       <c r="H22" s="13"/>
@@ -1758,6 +3788,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1770,29 +3801,29 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="18.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1863,7 +3894,7 @@
         <v>-4142000</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>2</v>
       </c>
@@ -1883,7 +3914,7 @@
         <v>133965000</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="17"/>
       <c r="D12" s="4"/>
@@ -1894,7 +3925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1906,14 +3937,14 @@
         <v>33491250</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="16" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F16" s="5"/>
       <c r="G16" s="9"/>
     </row>
@@ -1930,29 +3961,29 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="18.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2023,7 +4054,7 @@
         <v>-4142000</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>2</v>
       </c>
@@ -2043,7 +4074,7 @@
         <v>133965000</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="17"/>
       <c r="D12" s="4"/>
@@ -2054,7 +4085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2066,14 +4097,14 @@
         <v>33491250</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="16" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F16" s="5"/>
       <c r="G16" s="9"/>
     </row>
